--- a/temp_doc/DATA KELAS.xlsx
+++ b/temp_doc/DATA KELAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt2.0admin\temp_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881F9FF6-BF6B-49F5-9C9A-A2B3EB0E6044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F581467-C808-4392-91B4-0A591A993243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73261629-A3F9-9D48-92B7-D4325EB1BD24}"/>
   </bookViews>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -52,71 +50,176 @@
     <t>X AKL 2</t>
   </si>
   <si>
-    <t>X BDP 1</t>
-  </si>
-  <si>
-    <t>X BDP 2</t>
-  </si>
-  <si>
-    <t>X OTKP 1</t>
-  </si>
-  <si>
-    <t>X OTKP 2</t>
-  </si>
-  <si>
-    <t>X TKJ 1</t>
-  </si>
-  <si>
-    <t>X TKJ 2</t>
-  </si>
-  <si>
-    <t>X TKJ 3</t>
-  </si>
-  <si>
     <t>XI AKL 1</t>
   </si>
   <si>
     <t>XI AKL 2</t>
   </si>
   <si>
-    <t>XI BDP 1</t>
-  </si>
-  <si>
-    <t>XI BDP 2</t>
-  </si>
-  <si>
-    <t>XI OTKP 1</t>
-  </si>
-  <si>
-    <t>XI OTKP 2</t>
-  </si>
-  <si>
-    <t>XI TKJ 1</t>
-  </si>
-  <si>
-    <t>XI TKJ 2</t>
-  </si>
-  <si>
-    <t>XI TKJ 3</t>
-  </si>
-  <si>
     <t>AKL</t>
   </si>
   <si>
-    <t>BDP</t>
-  </si>
-  <si>
-    <t>OTKP</t>
-  </si>
-  <si>
-    <t>TKJ</t>
+    <t>X DKV</t>
+  </si>
+  <si>
+    <t>X MPLB 1</t>
+  </si>
+  <si>
+    <t>X MPLB 2</t>
+  </si>
+  <si>
+    <t>X PM</t>
+  </si>
+  <si>
+    <t>X TJKT 1</t>
+  </si>
+  <si>
+    <t>X TJKT 2</t>
+  </si>
+  <si>
+    <t>X TJKT 3</t>
+  </si>
+  <si>
+    <t>XI MPLB 1</t>
+  </si>
+  <si>
+    <t>XI MPLB 2</t>
+  </si>
+  <si>
+    <t>XI PM</t>
+  </si>
+  <si>
+    <t>XII AKL 1</t>
+  </si>
+  <si>
+    <t>XII AKL 2</t>
+  </si>
+  <si>
+    <t>XII MPLB 1</t>
+  </si>
+  <si>
+    <t>XII MPLB 2</t>
+  </si>
+  <si>
+    <t>XII PM 1</t>
+  </si>
+  <si>
+    <t>XII PM 2</t>
+  </si>
+  <si>
+    <t>DKV</t>
+  </si>
+  <si>
+    <t>MPLB</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>TJKT</t>
+  </si>
+  <si>
+    <t>XI TJKT 1</t>
+  </si>
+  <si>
+    <t>XI TJKT 2</t>
+  </si>
+  <si>
+    <t>XI TJKT 3</t>
+  </si>
+  <si>
+    <t>XII TJKT 1</t>
+  </si>
+  <si>
+    <t>XII TJKT 2</t>
+  </si>
+  <si>
+    <t>XII TJKT 3</t>
+  </si>
+  <si>
+    <t>1001171</t>
+  </si>
+  <si>
+    <t>1002432</t>
+  </si>
+  <si>
+    <t>1003530</t>
+  </si>
+  <si>
+    <t>1004892</t>
+  </si>
+  <si>
+    <t>1005136</t>
+  </si>
+  <si>
+    <t>1006297</t>
+  </si>
+  <si>
+    <t>1007290</t>
+  </si>
+  <si>
+    <t>1008935</t>
+  </si>
+  <si>
+    <t>1009877</t>
+  </si>
+  <si>
+    <t>1010989</t>
+  </si>
+  <si>
+    <t>1011387</t>
+  </si>
+  <si>
+    <t>1012261</t>
+  </si>
+  <si>
+    <t>1013972</t>
+  </si>
+  <si>
+    <t>1014627</t>
+  </si>
+  <si>
+    <t>1015878</t>
+  </si>
+  <si>
+    <t>1016606</t>
+  </si>
+  <si>
+    <t>1017766</t>
+  </si>
+  <si>
+    <t>1018296</t>
+  </si>
+  <si>
+    <t>1019784</t>
+  </si>
+  <si>
+    <t>1020372</t>
+  </si>
+  <si>
+    <t>1021830</t>
+  </si>
+  <si>
+    <t>1022311</t>
+  </si>
+  <si>
+    <t>1023454</t>
+  </si>
+  <si>
+    <t>1024676</t>
+  </si>
+  <si>
+    <t>1025851</t>
+  </si>
+  <si>
+    <t>1026438</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -125,29 +228,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -155,15 +276,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,7 +321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -481,257 +620,314 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1001201</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1002164</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1003393</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1004601</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>1005908</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1006754</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1007323</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1008634</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1009956</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>1010705</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1011701</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>1012907</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>1013318</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>1014740</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1015879</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>1016422</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>1017835</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>1018989</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="2"/>
+      <c r="C28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/temp_doc/DATA KELAS.xlsx
+++ b/temp_doc/DATA KELAS.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\cbt2.0admin\temp_doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F581467-C808-4392-91B4-0A591A993243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E24476-FD5A-9140-B05C-98C08CEFA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73261629-A3F9-9D48-92B7-D4325EB1BD24}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{73261629-A3F9-9D48-92B7-D4325EB1BD24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -89,24 +92,6 @@
     <t>XI PM</t>
   </si>
   <si>
-    <t>XII AKL 1</t>
-  </si>
-  <si>
-    <t>XII AKL 2</t>
-  </si>
-  <si>
-    <t>XII MPLB 1</t>
-  </si>
-  <si>
-    <t>XII MPLB 2</t>
-  </si>
-  <si>
-    <t>XII PM 1</t>
-  </si>
-  <si>
-    <t>XII PM 2</t>
-  </si>
-  <si>
     <t>DKV</t>
   </si>
   <si>
@@ -126,93 +111,6 @@
   </si>
   <si>
     <t>XI TJKT 3</t>
-  </si>
-  <si>
-    <t>XII TJKT 1</t>
-  </si>
-  <si>
-    <t>XII TJKT 2</t>
-  </si>
-  <si>
-    <t>XII TJKT 3</t>
-  </si>
-  <si>
-    <t>1001171</t>
-  </si>
-  <si>
-    <t>1002432</t>
-  </si>
-  <si>
-    <t>1003530</t>
-  </si>
-  <si>
-    <t>1004892</t>
-  </si>
-  <si>
-    <t>1005136</t>
-  </si>
-  <si>
-    <t>1006297</t>
-  </si>
-  <si>
-    <t>1007290</t>
-  </si>
-  <si>
-    <t>1008935</t>
-  </si>
-  <si>
-    <t>1009877</t>
-  </si>
-  <si>
-    <t>1010989</t>
-  </si>
-  <si>
-    <t>1011387</t>
-  </si>
-  <si>
-    <t>1012261</t>
-  </si>
-  <si>
-    <t>1013972</t>
-  </si>
-  <si>
-    <t>1014627</t>
-  </si>
-  <si>
-    <t>1015878</t>
-  </si>
-  <si>
-    <t>1016606</t>
-  </si>
-  <si>
-    <t>1017766</t>
-  </si>
-  <si>
-    <t>1018296</t>
-  </si>
-  <si>
-    <t>1019784</t>
-  </si>
-  <si>
-    <t>1020372</t>
-  </si>
-  <si>
-    <t>1021830</t>
-  </si>
-  <si>
-    <t>1022311</t>
-  </si>
-  <si>
-    <t>1023454</t>
-  </si>
-  <si>
-    <t>1024676</t>
-  </si>
-  <si>
-    <t>1025851</t>
-  </si>
-  <si>
-    <t>1026438</t>
   </si>
 </sst>
 </file>
@@ -295,14 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -620,310 +517,255 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1001786</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1002459</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1003484</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1004460</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>1005541</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>1006121</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>1007523</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>1008162</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>1009684</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>1010181</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>1011647</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>1012225</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>1013415</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>1014483</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1015487</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1016590</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>1017398</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
     </row>
   </sheetData>

--- a/temp_doc/DATA KELAS.xlsx
+++ b/temp_doc/DATA KELAS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/cbt2.0admin/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E24476-FD5A-9140-B05C-98C08CEFA2DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A7E070-9F7E-E347-A0DB-2C448F0D17AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{73261629-A3F9-9D48-92B7-D4325EB1BD24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -47,21 +47,6 @@
     <t>kelas</t>
   </si>
   <si>
-    <t>X AKL 1</t>
-  </si>
-  <si>
-    <t>X AKL 2</t>
-  </si>
-  <si>
-    <t>XI AKL 1</t>
-  </si>
-  <si>
-    <t>XI AKL 2</t>
-  </si>
-  <si>
-    <t>AKL</t>
-  </si>
-  <si>
     <t>X DKV</t>
   </si>
   <si>
@@ -74,15 +59,6 @@
     <t>X PM</t>
   </si>
   <si>
-    <t>X TJKT 1</t>
-  </si>
-  <si>
-    <t>X TJKT 2</t>
-  </si>
-  <si>
-    <t>X TJKT 3</t>
-  </si>
-  <si>
     <t>XI MPLB 1</t>
   </si>
   <si>
@@ -99,18 +75,6 @@
   </si>
   <si>
     <t>PM</t>
-  </si>
-  <si>
-    <t>TJKT</t>
-  </si>
-  <si>
-    <t>XI TJKT 1</t>
-  </si>
-  <si>
-    <t>XI TJKT 2</t>
-  </si>
-  <si>
-    <t>XI TJKT 3</t>
   </si>
 </sst>
 </file>
@@ -193,13 +157,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{472EDF10-BCF8-FF4E-AB22-FAF8E5AED937}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,239 +497,129 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1001786</v>
+      <c r="A2" s="3">
+        <v>1003484</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
-        <v>1002459</v>
+      <c r="A3" s="3">
+        <v>1004460</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>1003484</v>
+      <c r="A4" s="3">
+        <v>1005541</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1006121</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1012225</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1013415</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>1004460</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1014483</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>1005541</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>1006121</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>1007523</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>1008162</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>1009684</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>1010181</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
-        <v>1011647</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
-        <v>1012225</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
-        <v>1013415</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
-        <v>1014483</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>1015487</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
-        <v>1016590</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
-        <v>1017398</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
